--- a/Config/Excel/Server/ServerConfig.xlsx
+++ b/Config/Excel/Server/ServerConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -127,6 +127,32 @@
     <t>最多1023个世界</t>
   </si>
   <si>
+    <t>物理机编号</t>
+  </si>
+  <si>
+    <r>
+      <t>内部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Scene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通信时用的Port</t>
+    </r>
+  </si>
+  <si>
     <t>Gate进程</t>
   </si>
   <si>
@@ -351,6 +377,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399395733512375"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -394,12 +426,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,7 +728,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,16 +752,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -744,16 +770,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -826,7 +852,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -854,13 +880,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1190,7 +1219,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1201,7 +1230,7 @@
     <col min="4" max="4" width="17.1666666666667" customWidth="1"/>
     <col min="5" max="5" width="16.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.1666666666667" customWidth="1"/>
+    <col min="7" max="7" width="26.375" customWidth="1"/>
     <col min="8" max="8" width="17.8333333333333" customWidth="1"/>
     <col min="9" max="9" width="25.1666666666667" customWidth="1"/>
   </cols>
@@ -1334,143 +1363,147 @@
       <c r="E6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" ht="15.75" spans="1:9">
       <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12">
         <f>_xlfn.BITXOR(E7,_xlfn.BITLSHIFT(D7,10))</f>
         <v>1024</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <v>1</v>
       </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
         <v>1</v>
       </c>
-      <c r="G7" s="11" t="str">
+      <c r="G7" s="12" t="str">
         <f t="shared" ref="G7:G11" si="0">1&amp;F7*1000+D7</f>
         <v>11001</v>
       </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>27</v>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:9">
       <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12">
         <f>_xlfn.BITXOR(E8,_xlfn.BITLSHIFT(D8,10))</f>
         <v>2048</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="12">
         <v>2</v>
       </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="str">
+      <c r="G8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>11002</v>
       </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>28</v>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:9">
       <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12">
         <f t="shared" ref="C9:C11" si="1">_xlfn.BITXOR(E9,_xlfn.BITLSHIFT(D9,10))</f>
         <v>3072</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="12">
         <v>3</v>
       </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
         <v>1</v>
       </c>
-      <c r="G9" s="11" t="str">
+      <c r="G9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>11003</v>
       </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>29</v>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:9">
       <c r="A10" s="1"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12">
         <f t="shared" si="1"/>
         <v>4096</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="12">
         <v>4</v>
       </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
         <v>1</v>
       </c>
-      <c r="G10" s="11" t="str">
+      <c r="G10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>11004</v>
       </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>30</v>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="2:9">
-      <c r="B11" s="10"/>
-      <c r="C11" s="11">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12">
         <f t="shared" si="1"/>
         <v>5120</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="12">
         <v>5</v>
       </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
         <v>1</v>
       </c>
-      <c r="G11" s="11" t="str">
+      <c r="G11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>11005</v>
       </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>31</v>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Server/ServerConfig.xlsx
+++ b/Config/Excel/Server/ServerConfig.xlsx
@@ -131,6 +131,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>内部</t>
     </r>
     <r>
@@ -153,6 +159,9 @@
     </r>
   </si>
   <si>
+    <t>Realm进程</t>
+  </si>
+  <si>
     <t>Gate进程</t>
   </si>
   <si>
@@ -163,9 +172,6 @@
   </si>
   <si>
     <t>Chat进程</t>
-  </si>
-  <si>
-    <t>Realm进程</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1225,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1372,8 +1378,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" ht="15.75" spans="1:9">
-      <c r="A7" s="1"/>
+    <row r="7" ht="15.75" spans="2:9">
       <c r="B7" s="11"/>
       <c r="C7" s="12">
         <f>_xlfn.BITXOR(E7,_xlfn.BITLSHIFT(D7,10))</f>
@@ -1389,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="12" t="str">
-        <f t="shared" ref="G7:G11" si="0">1&amp;F7*1000+D7</f>
+        <f>1&amp;F7*1000+D7</f>
         <v>11001</v>
       </c>
       <c r="H7" s="12">
@@ -1416,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>1&amp;F8*1000+D8</f>
         <v>11002</v>
       </c>
       <c r="H8" s="12">
@@ -1430,7 +1435,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12">
-        <f t="shared" ref="C9:C11" si="1">_xlfn.BITXOR(E9,_xlfn.BITLSHIFT(D9,10))</f>
+        <f>_xlfn.BITXOR(E9,_xlfn.BITLSHIFT(D9,10))</f>
         <v>3072</v>
       </c>
       <c r="D9" s="12">
@@ -1443,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>1&amp;F9*1000+D9</f>
         <v>11003</v>
       </c>
       <c r="H9" s="12">
@@ -1457,7 +1462,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12">
-        <f t="shared" si="1"/>
+        <f>_xlfn.BITXOR(E10,_xlfn.BITLSHIFT(D10,10))</f>
         <v>4096</v>
       </c>
       <c r="D10" s="12">
@@ -1470,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>1&amp;F10*1000+D10</f>
         <v>11004</v>
       </c>
       <c r="H10" s="12">
@@ -1480,10 +1485,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="2:9">
+    <row r="11" ht="15.75" spans="1:9">
+      <c r="A11" s="1"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12">
-        <f t="shared" si="1"/>
+        <f>_xlfn.BITXOR(E11,_xlfn.BITLSHIFT(D11,10))</f>
         <v>5120</v>
       </c>
       <c r="D11" s="12">
@@ -1496,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>1&amp;F11*1000+D11</f>
         <v>11005</v>
       </c>
       <c r="H11" s="12">
